--- a/Isochrone/Excel Data/Services.xlsx
+++ b/Isochrone/Excel Data/Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo Allen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo Allen\Desktop\Isochrones\isochrones\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AE1B46-EE39-498F-BA12-C227052998D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93FA8D8-C4A6-4738-9FF6-8C10FF04194C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12498" yWindow="1146" windowWidth="17328" windowHeight="10620" xr2:uid="{6D336315-7F54-40BE-916C-D16286ADC43E}"/>
+    <workbookView xWindow="-21165" yWindow="7560" windowWidth="6915" windowHeight="3600" xr2:uid="{6D336315-7F54-40BE-916C-D16286ADC43E}"/>
   </bookViews>
   <sheets>
     <sheet name="RPK" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="268">
   <si>
     <t>Name</t>
   </si>
@@ -677,6 +677,159 @@
   </si>
   <si>
     <t>318 S. West Street</t>
+  </si>
+  <si>
+    <t>culpeper Literacy Council</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>415 South Main St</t>
+  </si>
+  <si>
+    <t>culpeper</t>
+  </si>
+  <si>
+    <t>Literacy Volunteers of Fauquier County</t>
+  </si>
+  <si>
+    <t>320 Hospital Dr</t>
+  </si>
+  <si>
+    <t>Piedmont Regional Adult Education</t>
+  </si>
+  <si>
+    <t>6368 Flat Run Rd</t>
+  </si>
+  <si>
+    <t>culpeper County Parks and Rec</t>
+  </si>
+  <si>
+    <t>recreation</t>
+  </si>
+  <si>
+    <t>131 N Main St</t>
+  </si>
+  <si>
+    <t>Fauquier County Parks and Rec</t>
+  </si>
+  <si>
+    <t>Madison County Parks and Rec</t>
+  </si>
+  <si>
+    <t>158 Primary School Drive</t>
+  </si>
+  <si>
+    <t>Orange County Parks and Rec</t>
+  </si>
+  <si>
+    <t>146 M Madison Road</t>
+  </si>
+  <si>
+    <t>Culpeper Career Resource Center</t>
+  </si>
+  <si>
+    <t>professional</t>
+  </si>
+  <si>
+    <t>210 E Stevens Street</t>
+  </si>
+  <si>
+    <t>Virginina Career Works Center</t>
+  </si>
+  <si>
+    <t>127 Belleview Ave</t>
+  </si>
+  <si>
+    <t>Powell Wellness Center</t>
+  </si>
+  <si>
+    <t>1005 Golf Drive</t>
+  </si>
+  <si>
+    <t>Warrenton Aquatic and Recreational Facility</t>
+  </si>
+  <si>
+    <t>800 Waterloo Road</t>
+  </si>
+  <si>
+    <t>Library of Congress, Packard Campus Theater</t>
+  </si>
+  <si>
+    <t>19053 Mt. Pony Road</t>
+  </si>
+  <si>
+    <t>Hoover Ridge Park</t>
+  </si>
+  <si>
+    <t>199 Primary School Dr</t>
+  </si>
+  <si>
+    <t>Rappahannock County Park</t>
+  </si>
+  <si>
+    <t>7 Park Ln</t>
+  </si>
+  <si>
+    <t>Fauquier Public Library: Bealeton</t>
+  </si>
+  <si>
+    <t>10877 Willow Drive North</t>
+  </si>
+  <si>
+    <t>Fauquier Public Library: Marshall</t>
+  </si>
+  <si>
+    <t>4133 Rectortown Road</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Fauquier Public Library: Warrenton</t>
+  </si>
+  <si>
+    <t>11 Winchester Street</t>
+  </si>
+  <si>
+    <t>Culpeper County Library</t>
+  </si>
+  <si>
+    <t>271 Southgate Shopping Center</t>
+  </si>
+  <si>
+    <t>Hot Wheels Program</t>
+  </si>
+  <si>
+    <t>310 Thrift Rd</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>Long Term Care Ombudsman</t>
+  </si>
+  <si>
+    <t>elderly</t>
+  </si>
+  <si>
+    <t>15361 Bradford Road</t>
+  </si>
+  <si>
+    <t>Foothills Area Mobility System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transit </t>
+  </si>
+  <si>
+    <t>710 U.S. Avenue</t>
+  </si>
+  <si>
+    <t>Culpeper Veteran Walk-in Clinic</t>
+  </si>
+  <si>
+    <t>219 E Davis St</t>
   </si>
 </sst>
 </file>
@@ -721,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -730,6 +883,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1045,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170B76AD-3AA5-458A-AE26-8745A9100867}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A68" sqref="A1:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2289,6 +2443,557 @@
       </c>
       <c r="J44" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45">
+        <v>-77.997573852539006</v>
+      </c>
+      <c r="H45">
+        <v>38.469383239746001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46">
+        <v>-77.809005737304602</v>
+      </c>
+      <c r="H46">
+        <v>38.7134399414062</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="4">
+        <v>22508</v>
+      </c>
+      <c r="G47">
+        <v>-77.779774000000003</v>
+      </c>
+      <c r="H47">
+        <v>38.313321000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G48">
+        <v>-77.995932699999997</v>
+      </c>
+      <c r="H48">
+        <v>38.473553899999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>-77.809005737304602</v>
+      </c>
+      <c r="H49">
+        <v>38.7134399414062</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50">
+        <v>-78.263243599999996</v>
+      </c>
+      <c r="H50">
+        <v>38.359327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51">
+        <v>-78.111905500000006</v>
+      </c>
+      <c r="H51">
+        <v>38.246627699999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G52">
+        <v>-77.994296599999998</v>
+      </c>
+      <c r="H52">
+        <v>38.470739199999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54">
+        <v>-78.113039999999998</v>
+      </c>
+      <c r="H54">
+        <v>38.245869999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55">
+        <v>-78.011614699999996</v>
+      </c>
+      <c r="H55">
+        <v>38.460214000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56">
+        <v>-77.818594000000004</v>
+      </c>
+      <c r="H56">
+        <v>38.717230999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57">
+        <v>-77.9730694</v>
+      </c>
+      <c r="H57">
+        <v>38.442018300000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58">
+        <v>-78.262518</v>
+      </c>
+      <c r="H58">
+        <v>38.359251999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>-78.152659999999997</v>
+      </c>
+      <c r="H59">
+        <v>38.710540000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="4">
+        <v>60</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60">
+        <v>-77.762180000000001</v>
+      </c>
+      <c r="H60">
+        <v>38.577480000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="4">
+        <v>61</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G61">
+        <v>-77.854941999999994</v>
+      </c>
+      <c r="H61">
+        <v>38.868450000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="4">
+        <v>62</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62">
+        <v>-77.795400000000001</v>
+      </c>
+      <c r="H62">
+        <v>38.714410000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="4">
+        <v>63</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G63">
+        <v>-78.0013948</v>
+      </c>
+      <c r="H63">
+        <v>38.462195199999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="4">
+        <v>64</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G64">
+        <v>-78.262205399999999</v>
+      </c>
+      <c r="H64">
+        <v>38.3771542</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="4">
+        <v>65</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65">
+        <v>-78.235040900000001</v>
+      </c>
+      <c r="H65">
+        <v>38.6576211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="4">
+        <v>66</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66">
+        <v>-77.966797999999997</v>
+      </c>
+      <c r="H66">
+        <v>38.487521000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="4">
+        <v>67</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67">
+        <v>-77.992900000000006</v>
+      </c>
+      <c r="H67">
+        <v>38.470303000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="4">
+        <v>68</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68">
+        <v>-77.994199499999993</v>
+      </c>
+      <c r="H68">
+        <v>38.472669199999999</v>
       </c>
     </row>
   </sheetData>
